--- a/biology/Zoologie/Arkharavia/Arkharavia.xlsx
+++ b/biology/Zoologie/Arkharavia/Arkharavia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arkharavia est un genre de dinosaures appartenant à la famille des hadrosauridés dont les espèces vivaient durant la période du Crétacé supérieur et sur le territoire de la Russie actuelle. Le genre Arkharavia a été décrit en 2010 par Vladimir Alifanov (d) et Yuri L. Bolotsky, L'espèce type est dénommée Arkharavia heterocoelica.
 </t>
@@ -511,9 +523,11 @@
           <t>Holotype</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le spécimen holotype est constitué d'une seule vertèbre caudale antérieure[1]. Une dent et quelques vertèbres proximales de la queue - situées près de la base de la queue - ont été décrites à l'origine comme appartenant à cette espèce, cependant, elles pourraient aussi appartenir à un hadrosaure indéterminé.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le spécimen holotype est constitué d'une seule vertèbre caudale antérieure. Une dent et quelques vertèbres proximales de la queue - situées près de la base de la queue - ont été décrites à l'origine comme appartenant à cette espèce, cependant, elles pourraient aussi appartenir à un hadrosaure indéterminé.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arkharavia a été classé comme un titanosauriformes et est censé être lié à Chubutisaurus, un sauropode du Crétacé d'Argentine[1]. Cependant, une étude plus approfondie a montré que les vertèbres décrite avec l'holotype appartenaient en fait à un hadrosauridé[2]. 
-La vertèbre holotype est actuellement considérée comme un somphospondylien indéterminé[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arkharavia a été classé comme un titanosauriformes et est censé être lié à Chubutisaurus, un sauropode du Crétacé d'Argentine. Cependant, une étude plus approfondie a montré que les vertèbres décrite avec l'holotype appartenaient en fait à un hadrosauridé. 
+La vertèbre holotype est actuellement considérée comme un somphospondylien indéterminé.
 </t>
         </is>
       </c>
